--- a/data/raw/wisconsin_raw_2023.xlsx
+++ b/data/raw/wisconsin_raw_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/1828129869480/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/IMT/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{D201EC5D-1164-1A45-B3F5-94C0AF9F2676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{467E0110-4619-FE43-9DFB-B69F19301B6C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115C69EC-7C5D-E740-A5EA-DCCBCC86706C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21560" yWindow="-27500" windowWidth="27260" windowHeight="16460" xr2:uid="{32F2A5C7-A3F4-F74C-8C07-6F2EC8464FD0}"/>
+    <workbookView xWindow="11140" yWindow="-21000" windowWidth="27260" windowHeight="16460" xr2:uid="{32F2A5C7-A3F4-F74C-8C07-6F2EC8464FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -256,6 +256,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -318,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -337,6 +343,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,7 +681,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,7 +750,7 @@
       <c r="O1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="12" t="s">
         <v>61</v>
       </c>
       <c r="Q1" s="11" t="s">
@@ -797,7 +804,7 @@
         <v>295.66000000000003</v>
       </c>
       <c r="P2">
-        <v>10.663242181598418</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q2" s="10">
         <v>16.7</v>
@@ -850,7 +857,7 @@
         <v>88.81</v>
       </c>
       <c r="P3">
-        <v>11.561441943835888</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q3" s="10">
         <v>15.8</v>
@@ -903,7 +910,7 @@
         <v>273.51</v>
       </c>
       <c r="P4">
-        <v>10.902990422828857</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q4" s="10">
         <v>17</v>
@@ -956,7 +963,7 @@
         <v>321.16000000000003</v>
       </c>
       <c r="P5">
-        <v>11.242538138403702</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q5" s="10">
         <v>15.9</v>
@@ -1009,7 +1016,7 @@
         <v>97.45</v>
       </c>
       <c r="P6">
-        <v>11.174915686810676</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q6" s="10">
         <v>15.3</v>
@@ -1062,7 +1069,7 @@
         <v>302.72000000000003</v>
       </c>
       <c r="P7">
-        <v>11.324623586619008</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q7" s="10">
         <v>15.9</v>
@@ -1115,7 +1122,7 @@
         <v>118.17</v>
       </c>
       <c r="P8">
-        <v>9.5245387030089663</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q8" s="10">
         <v>15.3</v>
@@ -1168,7 +1175,7 @@
         <v>247.85</v>
       </c>
       <c r="P9">
-        <v>11.53269560251286</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q9" s="10">
         <v>17.2</v>
@@ -1221,7 +1228,7 @@
         <v>97.42</v>
       </c>
       <c r="P10">
-        <v>11.388029834455155</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q10" s="10">
         <v>15.3</v>
@@ -1274,7 +1281,7 @@
         <v>380.14</v>
       </c>
       <c r="P11">
-        <v>11.194692332850538</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q11" s="10">
         <v>17.8</v>
@@ -1327,7 +1334,7 @@
         <v>100.87</v>
       </c>
       <c r="P12">
-        <v>10.441267868241136</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q12" s="10">
         <v>14.1</v>
@@ -1380,7 +1387,7 @@
         <v>323.5</v>
       </c>
       <c r="P13">
-        <v>11.464462628971781</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q13" s="10">
         <v>16.3</v>
@@ -1433,7 +1440,7 @@
         <v>234.37</v>
       </c>
       <c r="P14">
-        <v>10.340474368783465</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q14" s="10">
         <v>15.1</v>
@@ -1486,7 +1493,7 @@
         <v>68.099999999999994</v>
       </c>
       <c r="P15">
-        <v>11.21251629726207</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q15" s="10">
         <v>14.1</v>
@@ -1539,7 +1546,7 @@
         <v>255.68</v>
       </c>
       <c r="P16">
-        <v>10.819672131147536</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q16" s="10">
         <v>16</v>
@@ -1592,7 +1599,7 @@
         <v>37.630000000000003</v>
       </c>
       <c r="P17">
-        <v>9.7385464140081446</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q17" s="10">
         <v>12.7</v>
@@ -1645,7 +1652,7 @@
         <v>200.88</v>
       </c>
       <c r="P18">
-        <v>10.560997328584151</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q18" s="10">
         <v>16.7</v>
@@ -1698,7 +1705,7 @@
         <v>58.89</v>
       </c>
       <c r="P19">
-        <v>10.077874484654139</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q19" s="10">
         <v>15.6</v>
@@ -1751,7 +1758,7 @@
         <v>75.209999999999994</v>
       </c>
       <c r="P20">
-        <v>9.4727973038035671</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q20" s="10">
         <v>12.3</v>
@@ -1804,7 +1811,7 @@
         <v>42.44</v>
       </c>
       <c r="P21">
-        <v>10.746582544689799</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q21" s="10">
         <v>15.4</v>
@@ -1857,7 +1864,7 @@
         <v>301.37</v>
       </c>
       <c r="P22">
-        <v>11.239065767384316</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q22" s="10">
         <v>15.9</v>
@@ -1910,7 +1917,7 @@
         <v>13.73</v>
       </c>
       <c r="P23">
-        <v>10.902011680726799</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q23" s="10">
         <v>8.6999999999999993</v>
@@ -1963,7 +1970,7 @@
         <v>67.3</v>
       </c>
       <c r="P24">
-        <v>11.493950552340884</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q24" s="10">
         <v>12.2</v>
@@ -2016,7 +2023,7 @@
         <v>1.69</v>
       </c>
       <c r="P25">
-        <v>8.6486486486486562</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q25" s="10">
         <v>4.5999999999999996</v>
@@ -2069,7 +2076,7 @@
         <v>46.06</v>
       </c>
       <c r="P26">
-        <v>9.7393689986282563</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q26" s="10">
         <v>11</v>
@@ -2122,7 +2129,7 @@
         <v>2.25</v>
       </c>
       <c r="P27">
-        <v>4.6610169491525379</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q27" s="10">
         <v>4.4000000000000004</v>
@@ -2175,7 +2182,7 @@
         <v>99.11</v>
       </c>
       <c r="P28">
-        <v>10.984372193281843</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q28" s="10">
         <v>11.3</v>
@@ -2228,7 +2235,7 @@
         <v>194.03</v>
       </c>
       <c r="P29">
-        <v>10.167137367470719</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q29" s="10">
         <v>15.2</v>
@@ -2281,7 +2288,7 @@
         <v>31.61</v>
       </c>
       <c r="P30">
-        <v>11.777839799051073</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q30" s="10">
         <v>10.199999999999999</v>
@@ -2334,7 +2341,7 @@
         <v>190.89</v>
       </c>
       <c r="P31">
-        <v>10.661300135723312</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q31" s="10">
         <v>12.5</v>
@@ -2387,7 +2394,7 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="P32">
-        <v>9.2224231464737922</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q32" s="10">
         <v>10.7</v>
@@ -2440,7 +2447,7 @@
         <v>185.79</v>
       </c>
       <c r="P33">
-        <v>11.452673720331715</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q33" s="10">
         <v>14.2</v>
@@ -2493,7 +2500,7 @@
         <v>54.91</v>
       </c>
       <c r="P34">
-        <v>11.105714748259683</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q34" s="10">
         <v>9.8000000000000007</v>
@@ -2546,7 +2553,7 @@
         <v>6.48</v>
       </c>
       <c r="P35">
-        <v>8.0851063829787151</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q35" s="10">
         <v>4.3</v>
@@ -2599,7 +2606,7 @@
         <v>60.37</v>
       </c>
       <c r="P36">
-        <v>10.536455245998825</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q36" s="10">
         <v>10.8</v>
@@ -2652,7 +2659,7 @@
         <v>5.84</v>
       </c>
       <c r="P37">
-        <v>15.850144092219026</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q37" s="10">
         <v>5.4</v>
